--- a/data/trans_dic/P22$mutaSS-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$mutaSS-Edad-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01963775229453908</v>
+        <v>0.0195808085692315</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01064967365962583</v>
+        <v>0.01092127502465902</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.002366012714827724</v>
+        <v>0.002509563757182775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.007512305184879905</v>
+        <v>0.008531798404909401</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03643905880728772</v>
+        <v>0.03539324173035859</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01345605029576633</v>
+        <v>0.01328353522089185</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005177835974513468</v>
+        <v>0.00517778925892578</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03212367687362772</v>
+        <v>0.0312487309056386</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01547940557382596</v>
+        <v>0.01525232364383733</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.006033575709399993</v>
+        <v>0.006073622635481432</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.005322874423842277</v>
+        <v>0.005970650979481507</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05281599221497758</v>
+        <v>0.05266108607840399</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04095645051510559</v>
+        <v>0.04051947406567916</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02451220431458507</v>
+        <v>0.02663198650838806</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05687046048417732</v>
+        <v>0.06337447122935952</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07956843321620569</v>
+        <v>0.07752988278954934</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04283542007297177</v>
+        <v>0.04350141441389313</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03151871911168812</v>
+        <v>0.03062735532941135</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01985733131602806</v>
+        <v>0.02201777071228514</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05880526233809807</v>
+        <v>0.05902850419032236</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03730081904473351</v>
+        <v>0.03628271948946333</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02059923591793643</v>
+        <v>0.02164966559452593</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03460997049269911</v>
+        <v>0.03362914562781422</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01706178484170692</v>
+        <v>0.01674635610834914</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01805474919635492</v>
+        <v>0.01877754779227955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009701724970336322</v>
+        <v>0.009843084562036523</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005073339963687013</v>
+        <v>0.005086787231909977</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02235935191603245</v>
+        <v>0.02340296414617365</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.009400920715861238</v>
+        <v>0.009035688046704149</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.001893246116411455</v>
+        <v>0.001878893792166577</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.003119571829624733</v>
+        <v>0.003112734117989032</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02200670656467607</v>
+        <v>0.02295617779255747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01670777232455532</v>
+        <v>0.01621669519633476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.008290025348005077</v>
+        <v>0.008340904816032552</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.005738592816371387</v>
+        <v>0.005489497436960335</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04192726312052976</v>
+        <v>0.04101817667573352</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04637026160008976</v>
+        <v>0.04711136895447202</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03209231607481178</v>
+        <v>0.03251616190733262</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0430473572296837</v>
+        <v>0.04680918234591402</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05371649075598265</v>
+        <v>0.05340424847408893</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.03410855038509435</v>
+        <v>0.03127060151400803</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0188822923590104</v>
+        <v>0.0201314336835501</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01948088009756577</v>
+        <v>0.01848025712044211</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04125528865933516</v>
+        <v>0.04257393233811521</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03456201143617081</v>
+        <v>0.0345559953720424</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02323074971498776</v>
+        <v>0.02129721239095409</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02828456042710311</v>
+        <v>0.02649426542276792</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02763575206005396</v>
+        <v>0.02642944212799366</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01422796505646041</v>
+        <v>0.01419935766172384</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01681759491472048</v>
+        <v>0.0163633176027472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0170993640657551</v>
+        <v>0.0170689189747595</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02180946162712125</v>
+        <v>0.0226845720111352</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.009563326518010524</v>
+        <v>0.009288572230109779</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.009832057278574551</v>
+        <v>0.01012470511466025</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01100356303387543</v>
+        <v>0.01032538169028599</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0279049458310689</v>
+        <v>0.02824914166250423</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01473462301295229</v>
+        <v>0.01425479191183483</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01578877488858903</v>
+        <v>0.01641029654347229</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01627476988759783</v>
+        <v>0.01694048470547702</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0609943751664981</v>
+        <v>0.06084568326500639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04119460722188198</v>
+        <v>0.04266577508239529</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04545607442748607</v>
+        <v>0.04371205432100051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04722165597823554</v>
+        <v>0.04961342705298469</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04938552241267641</v>
+        <v>0.05117692251036069</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03128121983320173</v>
+        <v>0.03239169143498889</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03101801235394734</v>
+        <v>0.03147234797560333</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0286546101259422</v>
+        <v>0.02879955779828326</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.04819270677600538</v>
+        <v>0.05116582332355488</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.03340894021663122</v>
+        <v>0.03055965788738214</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03361732568810886</v>
+        <v>0.03359834296847058</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.03412336174934618</v>
+        <v>0.0348483208409232</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.01125231177678409</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01144219169931406</v>
+        <v>0.01144219169931407</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.04052639103234545</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03640960762031447</v>
+        <v>0.03652184166354699</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02188354774184857</v>
+        <v>0.02029364684454488</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01509489248811448</v>
+        <v>0.01499829950306657</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02121288187684862</v>
+        <v>0.02178037707593763</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01387498471391413</v>
+        <v>0.01428389156820025</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01899233490270923</v>
+        <v>0.02020471916520987</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.004769607958070524</v>
+        <v>0.004834438368714499</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006225559258808438</v>
+        <v>0.006520136067975881</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02963300233988944</v>
+        <v>0.0294262886936201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02418641889545341</v>
+        <v>0.02373438809599623</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01157312113136878</v>
+        <v>0.01149360341472608</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01542392277900555</v>
+        <v>0.01592211132324009</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07751438605231435</v>
+        <v>0.07800341465760964</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05511367412600533</v>
+        <v>0.05531676317910478</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04167404661195634</v>
+        <v>0.0412678882324406</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0499925954795141</v>
+        <v>0.04823103583208559</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04166971992108796</v>
+        <v>0.04336896533426162</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05025118671170906</v>
+        <v>0.05396379645391113</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02111356535452333</v>
+        <v>0.02117996686442678</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.01875107250807254</v>
+        <v>0.01832616147748741</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05297786675829368</v>
+        <v>0.05416650561657031</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04801726141527808</v>
+        <v>0.0472850346727399</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.02736131288000906</v>
+        <v>0.02771911817617606</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02985095936568785</v>
+        <v>0.03078683603169808</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.01730073596390864</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.0299488169519635</v>
+        <v>0.02994881695196351</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.03959218353712311</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01941875185878243</v>
+        <v>0.0194189563840598</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01191891845320904</v>
+        <v>0.01388711307984626</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01869490667732772</v>
+        <v>0.01825657430351848</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01048426218356963</v>
+        <v>0.009806992954637057</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02771303275607215</v>
+        <v>0.02579020189906061</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.007155869751824293</v>
+        <v>0.007268557748180051</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.007778868724552974</v>
+        <v>0.007217547834694486</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02088112962710577</v>
+        <v>0.01975187987750827</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02764015045754446</v>
+        <v>0.02793777274764059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01389541959871091</v>
+        <v>0.01285799254492677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01608795952211842</v>
+        <v>0.01614413409067786</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.01746292031411577</v>
+        <v>0.01776211698622471</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05877025483796287</v>
+        <v>0.05721776116077199</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04358031854913536</v>
+        <v>0.04536187206778983</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0533537391275021</v>
+        <v>0.05359287517289973</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03356534315787855</v>
+        <v>0.0304470948458701</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07044913339609574</v>
+        <v>0.06492520118088077</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03560122534802279</v>
+        <v>0.03663445238209435</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03297418290330684</v>
+        <v>0.03523251484563937</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.04167774393336696</v>
+        <v>0.04196821992518262</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05540923031924517</v>
+        <v>0.05504650605177916</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03326659733518289</v>
+        <v>0.03448237745567701</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.03705177641227784</v>
+        <v>0.03709408164994841</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.03123528127778133</v>
+        <v>0.03276934833264204</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.0141392793358702</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.03183816637402159</v>
+        <v>0.03183816637402158</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.02467616131686376</v>
@@ -1377,7 +1377,7 @@
         <v>0.016609092260767</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03086977973304486</v>
+        <v>0.03086977973304487</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01525520959820214</v>
+        <v>0.01507035529012499</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.009462727217734748</v>
+        <v>0.009666577276931286</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.008676267957434749</v>
+        <v>0.007706713460813314</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01796384769610245</v>
+        <v>0.01652794241827757</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.008257533066004552</v>
+        <v>0.008280693377094436</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008212137463155182</v>
+        <v>0.008022463912669576</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.005539578260009189</v>
+        <v>0.005539315283180388</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02187647402788224</v>
+        <v>0.02191456944430609</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01469333126562851</v>
+        <v>0.01464721643836234</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0106788587942167</v>
+        <v>0.01062988183209816</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.008457564886735044</v>
+        <v>0.008627649346722416</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02227104989438021</v>
+        <v>0.02247165307116864</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05268771897789599</v>
+        <v>0.05434960507527938</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04047050433804703</v>
+        <v>0.04365914330387159</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04287656894730622</v>
+        <v>0.0442338380929154</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04700545650422794</v>
+        <v>0.04534476268547105</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04132152530450988</v>
+        <v>0.0390405203786152</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.04073226853963077</v>
+        <v>0.04008439846024719</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03142561807423822</v>
+        <v>0.03248246266874134</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.04513182875168369</v>
+        <v>0.04587998408915674</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.03828551463902276</v>
+        <v>0.03880030413273134</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03539011702851823</v>
+        <v>0.03315327917318266</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.02892589594115851</v>
+        <v>0.02883630237352372</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.04134161318106408</v>
+        <v>0.04176469738974614</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003937210933611753</v>
+        <v>0.003940460683077605</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006342647937092392</v>
+        <v>0.006194100171231268</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01453771069511319</v>
+        <v>0.01449221918491211</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.00359282360277258</v>
+        <v>0.003365245529990403</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.005403053093739191</v>
+        <v>0.002867740220214712</v>
       </c>
       <c r="I23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.008017280977200952</v>
+        <v>0.007683347452328284</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.006285073786668743</v>
+        <v>0.006284883127307865</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.005017089827036029</v>
+        <v>0.005026242358312946</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.003802492924531085</v>
+        <v>0.003774469673399488</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01246256922597628</v>
+        <v>0.01276510835479637</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05083723966406419</v>
+        <v>0.05174700008904417</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03064937098907628</v>
+        <v>0.03273135941642281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.03554333327888751</v>
+        <v>0.03484896897833793</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.04430907386862572</v>
+        <v>0.04537268915221149</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0375450065645512</v>
+        <v>0.03370662177080722</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.03094913221082473</v>
+        <v>0.02818440684946793</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.03134483016883576</v>
+        <v>0.02786335985380218</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02470436703243077</v>
+        <v>0.02373669231024593</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.0308112173822286</v>
+        <v>0.03080242457359415</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02263684639736597</v>
+        <v>0.02353879362135005</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02253188754660531</v>
+        <v>0.02223034408169417</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02852080809691525</v>
+        <v>0.02696803754758763</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.01778038187995708</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.02161554668203062</v>
+        <v>0.0216155466820306</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02916644090294719</v>
+        <v>0.02919437187652395</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.02094055811079893</v>
+        <v>0.02046085171917326</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01812832959975655</v>
+        <v>0.01751972059232306</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.02052006300126188</v>
+        <v>0.02040361820339289</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.02800247670926981</v>
+        <v>0.028294987091663</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01638811211214173</v>
+        <v>0.01606869471503989</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.009632618333805932</v>
+        <v>0.009333127085749073</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.01417469314610329</v>
+        <v>0.01414620878220927</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.03022228843241527</v>
+        <v>0.03001014270192888</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.01967704752396286</v>
+        <v>0.01973220308360832</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01470134099278013</v>
+        <v>0.01502506327659705</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.01868242915104561</v>
+        <v>0.01851894443806071</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.04328936756473852</v>
+        <v>0.04271643767966293</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.03266037997949551</v>
+        <v>0.03253411639901407</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02813095491986593</v>
+        <v>0.02894674940122746</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03258275211582829</v>
+        <v>0.03198836988934792</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.03951868277524719</v>
+        <v>0.04042302780574287</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02631232518745829</v>
+        <v>0.0256841587130285</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.01727917824239959</v>
+        <v>0.01697451039420108</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.0207172151747542</v>
+        <v>0.02074277396815448</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.03919773880154181</v>
+        <v>0.03937578291486978</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.02745895654768443</v>
+        <v>0.02740644164318788</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.02120661281498417</v>
+        <v>0.02148627272066548</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.02538084475215106</v>
+        <v>0.02520091799938863</v>
       </c>
     </row>
     <row r="28">
@@ -2011,22 +2011,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9684</v>
+        <v>9656</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4826</v>
+        <v>4949</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>988</v>
+        <v>1048</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3063</v>
+        <v>3479</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>17035</v>
+        <v>16546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5789</v>
+        <v>5715</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>2049</v>
@@ -2035,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>30859</v>
+        <v>30018</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13674</v>
+        <v>13474</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4908</v>
+        <v>4940</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4100</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26046</v>
+        <v>25969</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18560</v>
+        <v>18362</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10237</v>
+        <v>11122</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23191</v>
+        <v>25844</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>37197</v>
+        <v>36244</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18429</v>
+        <v>18716</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>12474</v>
+        <v>12121</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7199</v>
+        <v>7982</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56490</v>
+        <v>56704</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32951</v>
+        <v>32052</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16755</v>
+        <v>17609</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26660</v>
+        <v>25905</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>12506</v>
+        <v>12275</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>12405</v>
+        <v>12902</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5729</v>
+        <v>5812</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2419</v>
+        <v>2426</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13986</v>
+        <v>14638</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5737</v>
+        <v>5514</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1063</v>
+        <v>1055</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>29896</v>
+        <v>31185</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21676</v>
+        <v>21039</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>9552</v>
+        <v>9610</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5606</v>
+        <v>5363</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30732</v>
+        <v>30066</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>31860</v>
+        <v>32370</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18950</v>
+        <v>19201</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>20529</v>
+        <v>22323</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>33599</v>
+        <v>33404</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>20815</v>
+        <v>19083</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10606</v>
+        <v>11308</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9741</v>
+        <v>9240</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>56044</v>
+        <v>57836</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>44839</v>
+        <v>44831</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>26766</v>
+        <v>24538</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>27631</v>
+        <v>25882</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17650</v>
+        <v>16880</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9702</v>
+        <v>9682</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11237</v>
+        <v>10933</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>10616</v>
+        <v>10597</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15043</v>
+        <v>15647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>6798</v>
+        <v>6603</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6503</v>
+        <v>6696</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>6846</v>
+        <v>6424</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>37069</v>
+        <v>37526</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>20521</v>
+        <v>19853</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>20992</v>
+        <v>21818</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>20229</v>
+        <v>21057</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>38955</v>
+        <v>38860</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>28089</v>
+        <v>29092</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30372</v>
+        <v>29207</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>29317</v>
+        <v>30802</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34063</v>
+        <v>35299</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22236</v>
+        <v>23026</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>20515</v>
+        <v>20815</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>17827</v>
+        <v>17917</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>64020</v>
+        <v>67969</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>46529</v>
+        <v>42561</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>44696</v>
+        <v>44671</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>42415</v>
+        <v>43316</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>18861</v>
+        <v>18919</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>13450</v>
+        <v>12473</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9752</v>
+        <v>9690</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>14862</v>
+        <v>15260</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>7138</v>
+        <v>7349</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11703</v>
+        <v>12450</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3091</v>
+        <v>3133</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>4588</v>
+        <v>4805</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30595</v>
+        <v>30382</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>29769</v>
+        <v>29213</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14977</v>
+        <v>14874</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>22172</v>
+        <v>22888</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>40153</v>
+        <v>40407</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33874</v>
+        <v>33999</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26923</v>
+        <v>26661</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>35026</v>
+        <v>33791</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21437</v>
+        <v>22312</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30965</v>
+        <v>33252</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>13684</v>
+        <v>13727</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>13817</v>
+        <v>13504</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>54698</v>
+        <v>55926</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>59100</v>
+        <v>58199</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>35410</v>
+        <v>35873</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>42911</v>
+        <v>44256</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7509</v>
+        <v>7510</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5118</v>
+        <v>5964</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>8895</v>
+        <v>8686</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>6389</v>
+        <v>5976</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>11172</v>
+        <v>10397</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>3204</v>
+        <v>3255</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>3865</v>
+        <v>3586</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>12699</v>
+        <v>12012</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>21832</v>
+        <v>22067</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>12189</v>
+        <v>11279</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>15648</v>
+        <v>15702</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>21261</v>
+        <v>21625</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>22727</v>
+        <v>22127</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>18715</v>
+        <v>19480</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25385</v>
+        <v>25499</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20453</v>
+        <v>18553</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>28401</v>
+        <v>26174</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15942</v>
+        <v>16405</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>16383</v>
+        <v>17505</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>25346</v>
+        <v>25522</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>43765</v>
+        <v>43478</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>29182</v>
+        <v>30249</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>36038</v>
+        <v>36079</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>38028</v>
+        <v>39896</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4463</v>
+        <v>4409</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2931</v>
+        <v>2995</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2901</v>
+        <v>2577</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>7313</v>
+        <v>6728</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2832</v>
+        <v>2840</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2907</v>
+        <v>2840</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>2083</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9607</v>
+        <v>9624</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9338</v>
+        <v>9309</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>7088</v>
+        <v>7056</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>6008</v>
+        <v>6129</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>18847</v>
+        <v>19017</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>15416</v>
+        <v>15902</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12537</v>
+        <v>13525</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14335</v>
+        <v>14789</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>19135</v>
+        <v>18459</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>14171</v>
+        <v>13388</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>14419</v>
+        <v>14190</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11818</v>
+        <v>12215</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>19820</v>
+        <v>20149</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>24331</v>
+        <v>24658</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>23491</v>
+        <v>22007</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>20549</v>
+        <v>20485</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>34985</v>
+        <v>35343</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>1630</v>
+        <v>1592</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>4510</v>
+        <v>4495</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1200</v>
+        <v>1124</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>2102</v>
+        <v>1115</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>3725</v>
+        <v>3570</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>3406</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>3205</v>
+        <v>3211</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>2494</v>
+        <v>2476</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>9656</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10576</v>
+        <v>10766</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>7658</v>
+        <v>8178</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>9135</v>
+        <v>8956</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>13745</v>
+        <v>14075</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>12537</v>
+        <v>11255</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>12039</v>
+        <v>10963</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>12503</v>
+        <v>11115</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>11478</v>
+        <v>11028</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>16698</v>
+        <v>16693</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>14461</v>
+        <v>15037</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>14779</v>
+        <v>14581</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>22098</v>
+        <v>20895</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>95378</v>
+        <v>95470</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>71738</v>
+        <v>70095</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>61445</v>
+        <v>59382</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>72492</v>
+        <v>72081</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>94569</v>
+        <v>95557</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>58314</v>
+        <v>57177</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>34087</v>
+        <v>33027</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>52921</v>
+        <v>52814</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>200897</v>
+        <v>199487</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>137427</v>
+        <v>137812</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>101853</v>
+        <v>104096</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>135751</v>
+        <v>134563</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>141562</v>
+        <v>139689</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>111888</v>
+        <v>111455</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>95348</v>
+        <v>98113</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>115107</v>
+        <v>113007</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>133461</v>
+        <v>136515</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>93627</v>
+        <v>91392</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>61146</v>
+        <v>60068</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>77347</v>
+        <v>77442</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>260559</v>
+        <v>261743</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>191776</v>
+        <v>191410</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>146923</v>
+        <v>148861</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>184423</v>
+        <v>183116</v>
       </c>
     </row>
     <row r="36">
